--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB2C16F-CCFC-4439-8965-8D95C64805C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F37AF6-A5A2-43B2-83AD-93236F5CADE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
   </si>
@@ -57,20 +57,152 @@
   </si>
   <si>
     <t>มารดา</t>
-  </si>
-  <si>
-    <t>Mother</t>
   </si>
   <si>
     <t>รหัส Family
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>พี่สาว</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>สามี</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>บิดา</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>คู่สมรส</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>น้องชาย</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>บุตรชาย</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>น้องสาว</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>บุตรสาว</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ภรรยา</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>น้าชาย</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>อา</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>น้า</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>พี่ชาย</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>พ่อตา</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>บิดาภรรยา</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>แฟน</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ป้า</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ลุง</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>ย่า</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>พ่อบุญธรรม</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>พี่เขย</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>พี่แฟน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +220,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,12 +274,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,15 +294,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D392164A-B831-4D71-9ED5-9420A89A0E88}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +632,7 @@
     <col min="5" max="5" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -502,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -528,28 +666,269 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F37AF6-A5A2-43B2-83AD-93236F5CADE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848D585-5EA6-415A-957C-D1235A0A7BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
   </si>
   <si>
     <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>family_id</t>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>พี่แฟน</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +301,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -580,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,19 +604,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D392164A-B831-4D71-9ED5-9420A89A0E88}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,17 +639,18 @@
     <col min="3" max="3" width="34.08984375" customWidth="1"/>
     <col min="4" max="4" width="37.08984375" customWidth="1"/>
     <col min="5" max="5" width="41.54296875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -648,289 +658,300 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Family.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848D585-5EA6-415A-957C-D1235A0A7BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F82552-1E50-4A2F-BB04-0778A6C3957F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>family_name_en</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
-  </si>
-  <si>
-    <t>OPR</t>
   </si>
   <si>
     <t>01</t>
@@ -587,35 +578,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -626,331 +613,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D392164A-B831-4D71-9ED5-9420A89A0E88}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" customWidth="1"/>
-    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
